--- a/metrics/R2/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/metrics/R2/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.520984916276151</v>
+        <v>0.4991467639538381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5209849162761511</v>
+        <v>0.4991467639538381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5209849162761511</v>
+        <v>0.4991467639538381</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.991999312589516</v>
+        <v>0.8634099630066602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9923720177877009</v>
+        <v>0.8637443509417698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9922271004877542</v>
+        <v>0.8643208174410975</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9914238316311408</v>
+        <v>0.7594847234861953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.991436781934995</v>
+        <v>0.7615289911219363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9914292435065082</v>
+        <v>0.7681130961175869</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9556486217776393</v>
+        <v>0.8113875134532018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9583786517554764</v>
+        <v>0.8298696344690262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9558771998739488</v>
+        <v>0.8002681831545234</v>
       </c>
     </row>
   </sheetData>
